--- a/Excel/镇魂街/magicCircle.阵法.xlsx
+++ b/Excel/镇魂街/magicCircle.阵法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1039,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1097,9 +1097,7 @@
       <c r="F2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1115,9 +1113,7 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1137,9 +1133,7 @@
       <c r="F4" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
@@ -1155,9 +1149,7 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1177,9 +1169,7 @@
       <c r="F6" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1195,9 +1185,7 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1527,7 +1515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
